--- a/Datos_por_zona/DatosRegionales/DatosRegionales.xlsx
+++ b/Datos_por_zona/DatosRegionales/DatosRegionales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEMO 123\Desktop\kto\10\ASIE\Mapas\Datos_por_zona\DatosRegionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62500C3-928C-4819-8B28-26179D069A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F979BB8-8D5D-40DA-955C-2F5963A6DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{81BEAC43-BB1B-42E1-8B75-EB8114E54B41}"/>
   </bookViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5DD71D-74CD-45B5-A110-82E6F6DACBC6}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datos_por_zona/DatosRegionales/DatosRegionales.xlsx
+++ b/Datos_por_zona/DatosRegionales/DatosRegionales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEMO 123\Desktop\kto\10\ASIE\Mapas\Datos_por_zona\DatosRegionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F979BB8-8D5D-40DA-955C-2F5963A6DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC5CD75-5026-4AFD-B39C-66B8F2175D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{81BEAC43-BB1B-42E1-8B75-EB8114E54B41}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Pucallpa</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Ubigeo</t>
+  </si>
+  <si>
+    <t>Dif2022_2013</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5DD71D-74CD-45B5-A110-82E6F6DACBC6}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E26"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,9 +558,10 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -600,8 +604,11 @@
       <c r="N1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,8 +651,12 @@
       <c r="N2">
         <v>10307162.27</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>E2-N2</f>
+        <v>11114087.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -688,8 +699,12 @@
       <c r="N3">
         <v>28493264.690000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O26" si="0">E3-N3</f>
+        <v>25842985.309999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -732,8 +747,12 @@
       <c r="N4">
         <v>29721688.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>12047311.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -776,8 +795,12 @@
       <c r="N5">
         <v>3716898.67</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>11196851.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -820,8 +843,12 @@
       <c r="N6">
         <v>33460838.379999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>19798411.620000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -864,8 +891,12 @@
       <c r="N7">
         <v>40365864.57</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>58316885.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -908,8 +939,12 @@
       <c r="N8">
         <v>661776.47</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>6275473.5300000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -952,8 +987,12 @@
       <c r="N9">
         <v>36646715.810000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>23060534.189999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -996,8 +1035,12 @@
       <c r="N10">
         <v>23473688.91</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>11787061.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1040,8 +1083,12 @@
       <c r="N11">
         <v>32701558.010000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>11027441.989999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1084,8 +1131,12 @@
       <c r="N12">
         <v>3743649.74</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>6383600.2599999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1128,8 +1179,12 @@
       <c r="N13">
         <v>18904506.149999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>21627243.850000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1172,8 +1227,12 @@
       <c r="N14">
         <v>25660776.390000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>13556973.609999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1216,8 +1275,12 @@
       <c r="N15">
         <v>4082663.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>24999836.699999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1260,8 +1323,12 @@
       <c r="N16">
         <v>12024230.949999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>44095769.049999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1304,8 +1371,12 @@
       <c r="N17">
         <v>7458548.3300000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>35741201.670000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1348,8 +1419,12 @@
       <c r="N18">
         <v>144505.78</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>2393744.2200000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1392,8 +1467,12 @@
       <c r="N19">
         <v>1186297.45</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>3971702.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1436,8 +1515,12 @@
       <c r="N20">
         <v>5466468.6500000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>4948031.3499999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1480,8 +1563,12 @@
       <c r="N21">
         <v>27363344.489999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>41519655.510000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1524,8 +1611,12 @@
       <c r="N22">
         <v>64923346.850000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>22380403.149999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1568,8 +1659,12 @@
       <c r="N23">
         <v>4182167.28</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>29622332.719999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1612,8 +1707,12 @@
       <c r="N24">
         <v>917036.68</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>3096963.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1656,8 +1755,12 @@
       <c r="N25">
         <v>650776.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>6293723.9699999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1699,6 +1802,10 @@
       </c>
       <c r="N26">
         <v>1133795.3500000001</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>19794954.649999999</v>
       </c>
     </row>
   </sheetData>
